--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -777,16 +777,16 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -795,10 +795,10 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -807,10 +807,10 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
@@ -828,19 +828,19 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -753,7 +753,7 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -777,16 +777,16 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -801,10 +801,10 @@
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -843,19 +843,19 @@
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -798,7 +798,7 @@
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -828,16 +828,16 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -753,10 +753,10 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -753,10 +753,10 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -783,10 +783,10 @@
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -753,10 +753,10 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -783,10 +783,10 @@
         <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -765,13 +765,13 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -765,13 +765,13 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -762,7 +762,7 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>8.5</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -867,7 +867,7 @@
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,10 +876,10 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-19.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
